--- a/Module 17 - Share-based Payment.xlsx
+++ b/Module 17 - Share-based Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A7610EB-7020-4F79-A1F5-FD45CB5D2CF7}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46362E5A-BDD1-4611-999C-840566DB5597}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="6420" windowWidth="21600" windowHeight="11385" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="31770" windowHeight="14370" activeTab="1" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -97,10 +97,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -418,7 +419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A654F59E-9369-4B2E-B0F0-3CCDE6E1782C}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -443,10 +444,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE280A1E-8B72-49D9-B517-DB7D6EA724FF}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="A10:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -454,15 +455,24 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Module 17 - Share-based Payment.xlsx
+++ b/Module 17 - Share-based Payment.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46362E5A-BDD1-4611-999C-840566DB5597}"/>
+  <xr:revisionPtr revIDLastSave="546" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C1AF4CA-433B-4E00-A683-1736A1252327}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="31770" windowHeight="14370" activeTab="1" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="15360" windowHeight="10530" activeTab="1" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Module 17" sheetId="2" r:id="rId2"/>
+    <sheet name="WSE17.1" sheetId="3" r:id="rId3"/>
+    <sheet name="WSE17.4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>Main</t>
   </si>
@@ -46,13 +48,280 @@
   </si>
   <si>
     <t>Module 17</t>
+  </si>
+  <si>
+    <t>cash amount related to the value of the equity instruments is treated as a share bases payment</t>
+  </si>
+  <si>
+    <t>cash alternatives are not in scope of ICAS</t>
+  </si>
+  <si>
+    <t>recognition is the same as cash</t>
+  </si>
+  <si>
+    <t>net affect of share based payment on  distributable profits is nil</t>
+  </si>
+  <si>
+    <t>It is presumed the fair value of services provided by employees cannot be estimated reliably</t>
+  </si>
+  <si>
+    <t>EE's - measurement date is the grant date</t>
+  </si>
+  <si>
+    <t>EE's</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>FV</t>
+  </si>
+  <si>
+    <t>vesting period and vesting conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the cost is recognised over the 3 year vesting period at £200k pa.  </t>
+  </si>
+  <si>
+    <t>1/3*600</t>
+  </si>
+  <si>
+    <t>in each of the year ended 31/12/21,22,23 the required journal entry is</t>
+  </si>
+  <si>
+    <t>dr - staff costs</t>
+  </si>
+  <si>
+    <t>cr - RE</t>
+  </si>
+  <si>
+    <t>being recognition of share-based payments</t>
+  </si>
+  <si>
+    <t>the fair value is not adjusted for each year</t>
+  </si>
+  <si>
+    <t>it will stay at the nominal value as at the grant date</t>
+  </si>
+  <si>
+    <t>can be service conditions, or performance conditions</t>
+  </si>
+  <si>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>expense</t>
+  </si>
+  <si>
+    <t>equity</t>
+  </si>
+  <si>
+    <t>being share based payment expense for the YE 31/12/23</t>
+  </si>
+  <si>
+    <t>option/EE</t>
+  </si>
+  <si>
+    <t>option price</t>
+  </si>
+  <si>
+    <t>dr - SPL staff cost</t>
+  </si>
+  <si>
+    <t>cr - Retained earnigns</t>
+  </si>
+  <si>
+    <t>Actiovty 1  - Service conditions</t>
+  </si>
+  <si>
+    <t>Activity 2 - Performance conditons</t>
+  </si>
+  <si>
+    <t>no. options</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;price chagne as the performance requirements not met</t>
+  </si>
+  <si>
+    <t>Exercise or Lapse</t>
+  </si>
+  <si>
+    <t>Exercise</t>
+  </si>
+  <si>
+    <t>dr - bank</t>
+  </si>
+  <si>
+    <t>cr - share captila</t>
+  </si>
+  <si>
+    <t>cr - share premium</t>
+  </si>
+  <si>
+    <t>Lapse</t>
+  </si>
+  <si>
+    <t>no adjustment is made to total equity</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>proceeds from issue of shares</t>
+  </si>
+  <si>
+    <t>dr - other reserves</t>
+  </si>
+  <si>
+    <t>cr - SC</t>
+  </si>
+  <si>
+    <t>cr - SP</t>
+  </si>
+  <si>
+    <t>being issue of shares on exercise of options</t>
+  </si>
+  <si>
+    <t>being transfer to RE on excerise of 40% of optiosn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dr - </t>
+  </si>
+  <si>
+    <t>cr  -RE</t>
+  </si>
+  <si>
+    <t>being transfer to retained earnings on lapse of remaining 60% of options</t>
+  </si>
+  <si>
+    <t>Acquisition of an asset</t>
+  </si>
+  <si>
+    <t>dr - property cost</t>
+  </si>
+  <si>
+    <t>cr - share capital</t>
+  </si>
+  <si>
+    <t>cr  -share premium</t>
+  </si>
+  <si>
+    <t>being issue of share for property</t>
+  </si>
+  <si>
+    <t>Cash settles share based payments</t>
+  </si>
+  <si>
+    <t>IFRS 2 - Share appreciation rights</t>
+  </si>
+  <si>
+    <t>unpaid cash-settles share based payment transactions regonises a libailty and no equity</t>
+  </si>
+  <si>
+    <t>The liability is classiffied as current or non-current depening on the payment date</t>
+  </si>
+  <si>
+    <t>FV is determing using an option pricing model</t>
+  </si>
+  <si>
+    <t>measurement is adjusted for the expected number of rewards which will vest over the period</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>Liability</t>
+  </si>
+  <si>
+    <t>cr - other payables</t>
+  </si>
+  <si>
+    <t>being share based payment expense for the year ended 31/12/21</t>
+  </si>
+  <si>
+    <t>YE 31/12/2021</t>
+  </si>
+  <si>
+    <t>YE 31/12/22</t>
+  </si>
+  <si>
+    <t>dr - SPL - staff costs</t>
+  </si>
+  <si>
+    <t>being share based payment expense for the year ended 31/12/2022</t>
+  </si>
+  <si>
+    <t>Year ended 31/12/23</t>
+  </si>
+  <si>
+    <t>dr - other payables</t>
+  </si>
+  <si>
+    <t>cr - bank</t>
+  </si>
+  <si>
+    <t>being settlement of share based payment liability on 1/2/23</t>
+  </si>
+  <si>
+    <t>Neilson Ltd</t>
+  </si>
+  <si>
+    <t>no' ee's</t>
+  </si>
+  <si>
+    <t>options/EE</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>dr - SC</t>
+  </si>
+  <si>
+    <t>dr - SP</t>
+  </si>
+  <si>
+    <t>Takis plc</t>
+  </si>
+  <si>
+    <t>FV of Share appreciation right</t>
+  </si>
+  <si>
+    <t>Ee's that left company in the year</t>
+  </si>
+  <si>
+    <t>EE's expected to leave</t>
+  </si>
+  <si>
+    <t>open EE's</t>
+  </si>
+  <si>
+    <t>EE expected close</t>
+  </si>
+  <si>
+    <t>Share FV</t>
+  </si>
+  <si>
+    <t>paymen on 1/5/24</t>
+  </si>
+  <si>
+    <t>being settlement of share appreciatin rights</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +344,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -84,7 +361,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,16 +369,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -118,6 +413,676 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>120982</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF42CDE6-D8DC-6365-C953-6E5CEFB2DAE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612321" y="979715"/>
+          <a:ext cx="3673929" cy="719696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>240963</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>26479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B16158A-6CCE-876C-6FBE-EEB64C230469}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="607219" y="1928813"/>
+          <a:ext cx="3277057" cy="2038635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>44657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D798B1D9-AFCC-AFC3-E3BC-C5B9F20813D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="4800600"/>
+          <a:ext cx="3657600" cy="1721057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>93315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71443F2F-5980-FEC2-E403-0D1025304CBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612321" y="6517821"/>
+          <a:ext cx="3673929" cy="1590101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>102722</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23210BAA-1907-4A9D-D3BA-258035D9AA20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612913" y="8878957"/>
+          <a:ext cx="3677478" cy="848156"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>6403</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>24888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F859C63-6E0B-F712-EC19-988427EAE6E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605119" y="11526050"/>
+          <a:ext cx="3630706" cy="2999250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>71815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E8B009-647F-6D8D-6903-7A1A2DA8A1FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="17011650"/>
+          <a:ext cx="3657600" cy="529015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>5166</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7751671-9C6F-A0EC-15FB-20993389B463}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="17621250"/>
+          <a:ext cx="3657600" cy="2138766"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="Group 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D9E4ED-1E94-E9A0-B1DE-E47F1669FC6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="609601" y="20062371"/>
+          <a:ext cx="3657600" cy="2590800"/>
+          <a:chOff x="609600" y="20059650"/>
+          <a:chExt cx="6049219" cy="3791160"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="Picture 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C429A0EC-A711-8FC1-D717-4E0D8E499612}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="609600" y="20059650"/>
+            <a:ext cx="6030167" cy="2305372"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="12" name="Picture 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78AF16D6-3C03-D88E-9A9F-69F740F25170}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="609600" y="22345650"/>
+            <a:ext cx="6049219" cy="1505160"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>124284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6699297-C835-B397-CB25-A3F980BE8BF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="610914" y="24581069"/>
+          <a:ext cx="3665483" cy="3599267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>133186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09DBCB08-8961-1194-7224-4F68E9FF72AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605118" y="32071235"/>
+          <a:ext cx="3630706" cy="760716"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>116242</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F0A3F62-E426-28FF-0E28-4522BBF209E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="32099250"/>
+          <a:ext cx="3657600" cy="1640242"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>41069</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F711433-726A-390A-E7BA-30D9DAE0F8D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612914" y="36675391"/>
+          <a:ext cx="3677478" cy="1084678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>151087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>77033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F2DED7-777B-02E1-1060-C48F108CC492}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="42175387"/>
+          <a:ext cx="3657600" cy="2059546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE280A1E-8B72-49D9-B517-DB7D6EA724FF}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L317"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="A10:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A302" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D316" sqref="D316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -465,6 +1430,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L11" s="3"/>
     </row>
@@ -473,6 +1443,703 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L13" s="3"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="6">
+        <f>+C69*C70*C71</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B107" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B108" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B110" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B150" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B152" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B153" s="7">
+        <v>44561</v>
+      </c>
+      <c r="C153" s="1">
+        <f>1000-50-100</f>
+        <v>850</v>
+      </c>
+      <c r="D153" s="1">
+        <v>500</v>
+      </c>
+      <c r="E153" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F153" s="3">
+        <f>(+C153*D153*E153*1/3)/1000</f>
+        <v>495.83333333333331</v>
+      </c>
+      <c r="G153" s="3">
+        <f>(+C153*D153*E153*1/3)/1000</f>
+        <v>495.83333333333331</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B154" s="7">
+        <v>44926</v>
+      </c>
+      <c r="C154" s="1">
+        <f>1000-50-60-55</f>
+        <v>835</v>
+      </c>
+      <c r="D154" s="1">
+        <v>500</v>
+      </c>
+      <c r="E154" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F154" s="3">
+        <f>(+C154*D154*E154*0.333333333333333)/1000</f>
+        <v>487.08333333333331</v>
+      </c>
+      <c r="G154" s="3">
+        <f>(+E154*D154*C154*2/3)/1000</f>
+        <v>974.16666666666663</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B155" s="7">
+        <v>45291</v>
+      </c>
+      <c r="C155" s="1">
+        <f>1000-50-60-45</f>
+        <v>845</v>
+      </c>
+      <c r="D155" s="1">
+        <v>500</v>
+      </c>
+      <c r="E155" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F155" s="3">
+        <f>(+C155*D155*E155*0.333333333333333)/1000</f>
+        <v>492.91666666666663</v>
+      </c>
+      <c r="G155" s="3">
+        <f>(+C155*D155*E155)/1000</f>
+        <v>1478.75</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E158" s="3">
+        <f>+G155-G154</f>
+        <v>504.58333333333337</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C159" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F159" s="3">
+        <f>+E158</f>
+        <v>504.58333333333337</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B160" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B188" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B190" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B191" s="7">
+        <v>44561</v>
+      </c>
+      <c r="C191" s="1">
+        <v>100</v>
+      </c>
+      <c r="D191" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E191" s="3">
+        <f>+C191*D191*0.5</f>
+        <v>80</v>
+      </c>
+      <c r="F191" s="3">
+        <f>+C191*D191*0.5</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B192" s="7">
+        <v>44926</v>
+      </c>
+      <c r="C192" s="1">
+        <v>100</v>
+      </c>
+      <c r="D192" s="1">
+        <v>1</v>
+      </c>
+      <c r="E192" s="3">
+        <f>+C192*D192*2/2-E191</f>
+        <v>20</v>
+      </c>
+      <c r="F192" s="3">
+        <f>+E192+F191</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D193" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B195" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B197" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B198" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C199" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C200" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B203" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B204" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B224" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D224" s="1">
+        <f>40*0.25</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B225" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D225" s="1">
+        <f>40*4.75</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D226" s="5">
+        <f>SUM(D224:D225)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D227" s="9"/>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B228" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D228" s="9"/>
+      <c r="E228" s="1">
+        <f>+D226</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C229" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D229" s="9"/>
+      <c r="F229" s="1">
+        <f>+D224</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C230" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D230" s="9"/>
+      <c r="F230" s="1">
+        <f>+D225</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B231" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D231" s="9"/>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B233" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E233" s="10">
+        <f>100*0.4</f>
+        <v>40</v>
+      </c>
+      <c r="F233" s="10"/>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C234" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E234" s="10"/>
+      <c r="F234" s="10">
+        <f>+E233</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B235" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B237" s="7">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B238" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E238" s="1">
+        <f>0.6*100</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C239" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F239" s="1">
+        <f>+E238</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B240" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B244" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B256" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C256" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B257" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C257" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B258" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C258" s="1">
+        <f>SUM(C256:C257)</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B260" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E260" s="1">
+        <f>+C258</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C261" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F261" s="1">
+        <f>+C256</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C262" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F262" s="1">
+        <f>+C257</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B263" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B266" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B267" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="271" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B271" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B272" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B274" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B275" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B293" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C293" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="294" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B294" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C294" s="1">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="297" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B297" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="298" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B298" s="7">
+        <v>44561</v>
+      </c>
+      <c r="C298" s="3">
+        <f>+(300*80%)*500*C293*1/2</f>
+        <v>720000</v>
+      </c>
+      <c r="D298" s="3"/>
+      <c r="E298" s="3"/>
+      <c r="F298" s="3">
+        <f>+C298/1000</f>
+        <v>720</v>
+      </c>
+      <c r="G298" s="3">
+        <f>+C298/1000</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="299" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B299" s="7">
+        <v>44926</v>
+      </c>
+      <c r="C299" s="3">
+        <f>+(300*82%)*500*C294*2/2-G298*1000</f>
+        <v>1038899.9999999998</v>
+      </c>
+      <c r="D299" s="3"/>
+      <c r="E299" s="3"/>
+      <c r="F299" s="3">
+        <f>+C299/1000</f>
+        <v>1038.8999999999999</v>
+      </c>
+      <c r="G299" s="3">
+        <f>+F299+G298</f>
+        <v>1758.8999999999999</v>
+      </c>
+    </row>
+    <row r="300" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B300" s="7">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="302" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B302" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="303" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B303" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E303" s="3">
+        <f>+F298</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="304" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C304" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F304" s="3">
+        <f>+E303</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="305" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B305" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="307" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B307" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="309" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B309" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E309" s="3">
+        <f>+F299</f>
+        <v>1038.8999999999999</v>
+      </c>
+    </row>
+    <row r="310" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C310" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F310" s="3">
+        <f>+E309</f>
+        <v>1038.8999999999999</v>
+      </c>
+    </row>
+    <row r="311" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B311" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="313" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B313" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="315" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B315" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E315" s="3">
+        <f>+G299</f>
+        <v>1758.8999999999999</v>
+      </c>
+    </row>
+    <row r="316" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C316" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F316" s="3">
+        <f>+E315</f>
+        <v>1758.8999999999999</v>
+      </c>
+    </row>
+    <row r="317" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B317" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -480,5 +2147,375 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713B11E5-7CC4-408F-A38B-1C56369E377A}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
+        <v>44561</v>
+      </c>
+      <c r="C7" s="1">
+        <f>400-20-40</f>
+        <v>340</v>
+      </c>
+      <c r="D7" s="1">
+        <v>600</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F7" s="3">
+        <f>(+C7*D7*E7*1/3)/1000</f>
+        <v>170</v>
+      </c>
+      <c r="G7" s="3">
+        <f>(+C7*D7*E7*1/3)/1000</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="7">
+        <v>44926</v>
+      </c>
+      <c r="C8" s="1">
+        <v>330</v>
+      </c>
+      <c r="D8" s="1">
+        <v>600</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F8" s="3">
+        <f>(+C8*D8*E8*2/3)/1000-G7</f>
+        <v>160</v>
+      </c>
+      <c r="G8" s="3">
+        <f>(+E8*D8*C8*2/3)/1000</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <v>45291</v>
+      </c>
+      <c r="C9" s="1">
+        <f>400-20-25-15</f>
+        <v>340</v>
+      </c>
+      <c r="D9" s="1">
+        <v>600</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F9" s="3">
+        <f>(+C9*D9*E9*3/3)/1000-G8</f>
+        <v>180</v>
+      </c>
+      <c r="G9" s="3">
+        <f>(+C9*D9*E9)/1000</f>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="3">
+        <f>600*0.9*340</f>
+        <v>183600</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="3">
+        <f>340*600*0.9*2.4-E13</f>
+        <v>257040</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
+        <f>SUM(E13:E14)</f>
+        <v>440640</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{69DC5DA9-6723-4FA2-BF48-53E26EE5550C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD32B5E-847E-4B52-84FD-AB224FFC1AF8}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="7">
+        <v>44651</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E5" s="3">
+        <v>100</v>
+      </c>
+      <c r="F5" s="3">
+        <v>200</v>
+      </c>
+      <c r="G5" s="3">
+        <f>+D5-E5-F5</f>
+        <v>900</v>
+      </c>
+      <c r="H5" s="3">
+        <f>+C5*1000*G5</f>
+        <v>1080000</v>
+      </c>
+      <c r="I5" s="3">
+        <f>+G5*10*C5*1/3</f>
+        <v>3600</v>
+      </c>
+      <c r="J5" s="3">
+        <f>+G5*10*C5*1/3</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <v>45016</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="D6" s="3">
+        <f>+D5-E5</f>
+        <v>1100</v>
+      </c>
+      <c r="E6" s="3">
+        <v>110</v>
+      </c>
+      <c r="F6" s="3">
+        <v>120</v>
+      </c>
+      <c r="G6" s="3">
+        <f>+D6-E6-F6</f>
+        <v>870</v>
+      </c>
+      <c r="H6" s="3">
+        <f>+C6*1000*G6</f>
+        <v>1218000</v>
+      </c>
+      <c r="I6" s="3">
+        <f>+G6*10*C6*2/3-J5</f>
+        <v>4520</v>
+      </c>
+      <c r="J6" s="3">
+        <f>+G6*10*C6*2/3</f>
+        <v>8120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
+        <v>45382</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1.55</v>
+      </c>
+      <c r="D7" s="3">
+        <f>+D6-E6</f>
+        <v>990</v>
+      </c>
+      <c r="E7" s="3">
+        <v>140</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <f>+D7-E7-F7</f>
+        <v>850</v>
+      </c>
+      <c r="H7" s="3">
+        <f>+C7*1000*G7</f>
+        <v>1317500</v>
+      </c>
+      <c r="I7" s="3">
+        <f>+G7*10*C7*3/3-J6</f>
+        <v>5055</v>
+      </c>
+      <c r="J7" s="3">
+        <f>+G7*10*C7*3/3</f>
+        <v>13175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="3">
+        <f>+J7</f>
+        <v>13175</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="I11" s="3">
+        <f>+H5*1/3</f>
+        <v>360000</v>
+      </c>
+      <c r="J11" s="3">
+        <f>+H5*1/3</f>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <f>SUM(E11:E11)</f>
+        <v>13175</v>
+      </c>
+      <c r="I12" s="3">
+        <f>+H6*2/3-J11</f>
+        <v>452000</v>
+      </c>
+      <c r="J12" s="3">
+        <f>+H6*2/3</f>
+        <v>812000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="3">
+        <f>+H7*3/3-J12</f>
+        <v>505500</v>
+      </c>
+      <c r="J13" s="3">
+        <f>+H7</f>
+        <v>1317500</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{CF59CEB5-5958-4FD5-9234-D1BB7FE11FFF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Module 17 - Share-based Payment.xlsx
+++ b/Module 17 - Share-based Payment.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="546" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C1AF4CA-433B-4E00-A683-1736A1252327}"/>
+  <xr:revisionPtr revIDLastSave="722" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{449DC881-304D-425F-975E-6BA974D96B36}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="15360" windowHeight="10530" activeTab="1" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
+    <workbookView xWindow="4050" yWindow="5685" windowWidth="12420" windowHeight="11385" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Module 17" sheetId="2" r:id="rId2"/>
     <sheet name="WSE17.1" sheetId="3" r:id="rId3"/>
-    <sheet name="WSE17.4" sheetId="4" r:id="rId4"/>
+    <sheet name="WSE17.2" sheetId="5" r:id="rId4"/>
+    <sheet name="WSE17.3" sheetId="6" r:id="rId5"/>
+    <sheet name="WSE17.4" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="115">
   <si>
     <t>Main</t>
   </si>
@@ -315,12 +317,85 @@
   </si>
   <si>
     <t>being settlement of share appreciatin rights</t>
+  </si>
+  <si>
+    <t>WSE17.1</t>
+  </si>
+  <si>
+    <t>WSE17.2</t>
+  </si>
+  <si>
+    <t>WSE17.3</t>
+  </si>
+  <si>
+    <t>WSE17.4</t>
+  </si>
+  <si>
+    <t>Unitron ltd</t>
+  </si>
+  <si>
+    <t>share based payment plan for six execs.</t>
+  </si>
+  <si>
+    <t>profit growth y/y</t>
+  </si>
+  <si>
+    <t>y/y growth</t>
+  </si>
+  <si>
+    <t>payment level</t>
+  </si>
+  <si>
+    <t>Armstrong</t>
+  </si>
+  <si>
+    <t>cost - est. MV</t>
+  </si>
+  <si>
+    <t>issues</t>
+  </si>
+  <si>
+    <t>par</t>
+  </si>
+  <si>
+    <t>SP est.</t>
+  </si>
+  <si>
+    <t>value to be recorded should be the lower of the two value</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>dr - factory cost</t>
+  </si>
+  <si>
+    <t>being acquisition of factoy in exchange for shares</t>
+  </si>
+  <si>
+    <t>dr - IA - cost</t>
+  </si>
+  <si>
+    <t>being purchase of IA in exchange for shares</t>
+  </si>
+  <si>
+    <t>equity settled share based payments, shares being issued to purchase non-current assets</t>
+  </si>
+  <si>
+    <t>FV of NCA should capitalised where this ingormation is available</t>
+  </si>
+  <si>
+    <t>if asset fair value is not acailbale, the fc of the shares should be used to provide a value for the intangible NCA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]\(#,##0\)"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,7 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -397,6 +472,9 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1382,25 +1460,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A654F59E-9369-4B2E-B0F0-3CCDE6E1782C}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" location="'Module 17'!A1" display="Module 17" xr:uid="{CDCDEF19-F363-4F35-BF9C-3FF09679F678}"/>
+    <hyperlink ref="C2" location="WSE17.1!A1" display="WSE17.1" xr:uid="{FF0CECB0-D468-41C1-A91A-0B8F88344DF7}"/>
+    <hyperlink ref="C5" location="WSE17.4!A1" display="WSE17.4" xr:uid="{1090C7BD-0FB2-431E-ACA9-CF90D5F9CAA5}"/>
+    <hyperlink ref="C3" location="WSE17.2!A1" display="WSE17.2" xr:uid="{CF8B14D9-ADE9-445C-8C02-B34D868FD1F9}"/>
+    <hyperlink ref="C4" location="WSE17.3!A1" display="WSE17.3" xr:uid="{2066A972-C800-450B-B5E0-485E56CD999A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1411,7 +1509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE280A1E-8B72-49D9-B517-DB7D6EA724FF}">
   <dimension ref="A1:L317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D316" sqref="D316"/>
     </sheetView>
   </sheetViews>
@@ -2156,7 +2254,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B6" sqref="B6:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2306,6 +2404,462 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B149BC-F7D8-4544-B4A1-4AD883000C07}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
+        <v>44561</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>200000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="G7" s="3">
+        <f>(+C7*D7*F7*1/4)/1000</f>
+        <v>780</v>
+      </c>
+      <c r="H7" s="3">
+        <f>(+C7*D7*F7*1/4)/1000</f>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="7">
+        <v>44926</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>200000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="G8" s="3">
+        <f>(+C8*D8*F8*2/4)/1000-H7</f>
+        <v>780</v>
+      </c>
+      <c r="H8" s="3">
+        <f>(+F8*D8*C8*2/4)/1000</f>
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <v>45291</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>200000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="G9" s="3">
+        <f>(+C9*D9*F9*3/4)/1000-H8</f>
+        <v>390</v>
+      </c>
+      <c r="H9" s="3">
+        <f>(+C9*D9*F9*3/4)/1000</f>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="7">
+        <v>45657</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>200000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="G10" s="3">
+        <f>(+C10*D10*F10*4/4)/1000-H9</f>
+        <v>1250</v>
+      </c>
+      <c r="H10" s="3">
+        <f>(+C10*D10*F10*4/4)/1000</f>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11">
+        <f>+AVERAGE(C14:D14)</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E15" s="11">
+        <f>+AVERAGE(C14:E14)</f>
+        <v>0.15333333333333335</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" ref="F15" si="0">+AVERAGE(C14:F14)</f>
+        <v>0.16750000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{BD5CE64F-FF89-4356-85E2-44C757F3A6A2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC7F9EA-7D6F-4510-96AA-EF2887121C01}">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
+        <v>44743</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="12">
+        <f>+D10*D11</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="12">
+        <f>+(4.05-0.25)*D10</f>
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12">
+        <f>+D8</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="F24" s="12">
+        <f>+D12</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="F25" s="12">
+        <f>+E23-F24</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="7">
+        <v>44820</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="12">
+        <f>+D29*D30</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="12">
+        <f>+(4.1-0.25)*D29</f>
+        <v>461.99999999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="12">
+        <f>+D32+D31</f>
+        <v>491.99999999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="12">
+        <f>+D31</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="12">
+        <f>+D32</f>
+        <v>461.99999999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{1155CFAE-0575-4AFF-88D7-0F72C3E27D53}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD32B5E-847E-4B52-84FD-AB224FFC1AF8}">
   <dimension ref="A1:J13"/>
   <sheetViews>

--- a/Module 17 - Share-based Payment.xlsx
+++ b/Module 17 - Share-based Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="722" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{449DC881-304D-425F-975E-6BA974D96B36}"/>
+  <xr:revisionPtr revIDLastSave="726" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30EAC863-AC17-4366-BDAE-1D0C4C3CEF12}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="5685" windowWidth="12420" windowHeight="11385" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
+    <workbookView xWindow="22470" yWindow="9015" windowWidth="12420" windowHeight="11385" activeTab="5" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1462,7 +1462,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A654F59E-9369-4B2E-B0F0-3CCDE6E1782C}">
   <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1509,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE280A1E-8B72-49D9-B517-DB7D6EA724FF}">
   <dimension ref="A1:L317"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D316" sqref="D316"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2253,8 +2255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713B11E5-7CC4-408F-A38B-1C56369E377A}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:G9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2407,7 +2409,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B149BC-F7D8-4544-B4A1-4AD883000C07}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2627,7 +2631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC7F9EA-7D6F-4510-96AA-EF2887121C01}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2863,7 +2869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD32B5E-847E-4B52-84FD-AB224FFC1AF8}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
